--- a/ex_corr/tmpXLS/tmpБлохин.xlsx
+++ b/ex_corr/tmpXLS/tmpБлохин.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VecheslavSP\Desktop\Python\Ros_accred\ex_corr\tmpXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unitess\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1904" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_1011" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="250">
   <si>
     <t>Дата оформления  заявления-квитанции</t>
   </si>
@@ -132,27 +132,114 @@
     <t xml:space="preserve"> Исполнитель работ</t>
   </si>
   <si>
+    <t xml:space="preserve"> исполнение 51119100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не оплачено</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Протоколы готовы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ИЦ ФИТОИНЖЕНЕРИЯ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сформировано   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЕМП . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Анализаторы иммунологические</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 357-707819T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-008611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка БИК и ИК-спектрофотометров</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка БИК и ИК-спектрофотометров - протокол создан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-008611-2023-357-707819T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пригодно  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54959-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выездные работы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/13-04-2023/239143516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Блохин Р. П.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CFX96 (модуль) C1000 Touch (термоциклер)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Модули реакционные оптические в составе термоциклеров для амплификации нуклеиновых кислот</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 785BR30189/CT055837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-008611-2023-785BR30189/CT055837</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73436-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/13-04-2023/239143513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiskan Ascent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фотометры микропланшетные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 354-91048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-008611-2023-354-91048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18931-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/13-04-2023/239143533</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Clot</t>
   </si>
   <si>
-    <t xml:space="preserve"> Не оплачено</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Протоколы готовы</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ФАРМОБОРОНА ООО ИЦ</t>
   </si>
   <si>
-    <t xml:space="preserve"> Сформировано   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ЕМП . .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Коагулометры</t>
   </si>
   <si>
@@ -162,18 +249,9 @@
     <t xml:space="preserve"> 1000-009875</t>
   </si>
   <si>
-    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка БИК и ИК-спектрофотометров</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка БИК и ИК-спектрофотометров - протокол создан</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 448-1000-009875-2023-731506016E</t>
   </si>
   <si>
-    <t xml:space="preserve"> Пригодно  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 21938-01</t>
   </si>
   <si>
@@ -183,9 +261,6 @@
     <t xml:space="preserve"> Внутренние работы</t>
   </si>
   <si>
-    <t xml:space="preserve"> 448-2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 15.03.2023</t>
   </si>
   <si>
@@ -195,9 +270,6 @@
     <t xml:space="preserve"> 27.03.2024</t>
   </si>
   <si>
-    <t xml:space="preserve"> Блохин Р. П.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> АФГ-02</t>
   </si>
   <si>
@@ -255,9 +327,6 @@
     <t xml:space="preserve"> 30.03.2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> Выездные работы  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 448-1</t>
   </si>
   <si>
@@ -411,9 +480,6 @@
     <t xml:space="preserve"> DocUReader 2Pro</t>
   </si>
   <si>
-    <t xml:space="preserve"> Принято АРШИНом   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> UD202002119</t>
   </si>
   <si>
@@ -513,13 +579,100 @@
     <t xml:space="preserve"> И-МА/11-04-2023/238788123</t>
   </si>
   <si>
+    <t xml:space="preserve"> РПЛ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЦЕНТР ГИГИЕНЫ И ЭПИДЕМИОЛОГИИ В ГОРОДЕ МОСКВЕ ФБУЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Рефрактометры лабораторные пищевые</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66-3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-015213-2023-66-3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 427-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239349917</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> КФК-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Колориметры фотоэлектрические</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка фотоэлектроколориметров</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка фотоэлектроколориметров - протокол создан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-015213-2023-839415</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2578-81</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239349894</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПЭ-5300В</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спектрофотометры</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VEH1210162</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка спектрофотометров</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка спектрофотометров - протокол создан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-015213-2023-VEH1210162</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41144-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239349890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anthos мод. 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-015213-2023-22 550 1602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21533-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239349899</t>
+  </si>
+  <si>
     <t xml:space="preserve"> MultiskanGo</t>
   </si>
   <si>
     <t xml:space="preserve"> НЦЭСМП МИНЗДРАВА РОССИИ ФГБУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Анализаторы иммунологические</t>
   </si>
   <si>
     <t xml:space="preserve"> 1510-04031С</t>
@@ -776,7 +929,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,12 +1109,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1123,11 +1270,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1449,19 +1595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN22"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="28.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="22" max="22" width="39.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1587,7 +1725,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45000</v>
+        <v>44994</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1626,13 +1764,13 @@
         <v>43</v>
       </c>
       <c r="N2">
-        <v>4700</v>
+        <v>7900</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
       </c>
       <c r="P2">
-        <v>576777</v>
+        <v>575252</v>
       </c>
       <c r="Q2" t="s">
         <v>46</v>
@@ -1665,13 +1803,13 @@
         <v>53</v>
       </c>
       <c r="AA2">
-        <v>5018041631</v>
+        <v>5007066458</v>
       </c>
       <c r="AB2" t="s">
         <v>43</v>
       </c>
       <c r="AC2">
-        <v>5018041631</v>
+        <v>5007066458</v>
       </c>
       <c r="AD2" t="s">
         <v>43</v>
@@ -1686,7 +1824,7 @@
         <v>43</v>
       </c>
       <c r="AH2">
-        <v>576777</v>
+        <v>575252</v>
       </c>
       <c r="AI2" t="s">
         <v>56</v>
@@ -1709,7 +1847,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45007</v>
+        <v>44994</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1721,10 +1859,10 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -1736,11 +1874,11 @@
         <v>43</v>
       </c>
       <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
         <v>61</v>
       </c>
-      <c r="K3">
-        <v>710133</v>
-      </c>
       <c r="L3" t="s">
         <v>43</v>
       </c>
@@ -1748,16 +1886,16 @@
         <v>43</v>
       </c>
       <c r="N3">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
       </c>
       <c r="P3">
-        <v>578902</v>
+        <v>575252</v>
       </c>
       <c r="Q3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
         <v>43</v>
@@ -1772,28 +1910,28 @@
         <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
         <v>50</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z3" t="s">
         <v>53</v>
       </c>
       <c r="AA3">
-        <v>5018145380</v>
+        <v>5007066458</v>
       </c>
       <c r="AB3" t="s">
         <v>43</v>
       </c>
       <c r="AC3">
-        <v>5018145380</v>
+        <v>5007066458</v>
       </c>
       <c r="AD3" t="s">
         <v>43</v>
@@ -1802,25 +1940,25 @@
         <v>54</v>
       </c>
       <c r="AF3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s">
         <v>43</v>
       </c>
       <c r="AH3">
-        <v>578902</v>
+        <v>575252</v>
       </c>
       <c r="AI3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AJ3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AL3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AM3" t="s">
         <v>50</v>
@@ -1831,10 +1969,10 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45008</v>
+        <v>44994</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1843,10 +1981,10 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -1858,10 +1996,10 @@
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -1876,10 +2014,10 @@
         <v>43</v>
       </c>
       <c r="P4">
-        <v>579563</v>
+        <v>575252</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
         <v>43</v>
@@ -1894,55 +2032,55 @@
         <v>48</v>
       </c>
       <c r="V4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="W4" t="s">
         <v>50</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Z4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA4">
-        <v>7708006274</v>
+        <v>5007066458</v>
       </c>
       <c r="AB4" t="s">
         <v>43</v>
       </c>
       <c r="AC4">
-        <v>7734191827</v>
+        <v>5007066458</v>
       </c>
       <c r="AD4" t="s">
         <v>43</v>
       </c>
       <c r="AE4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="AF4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="s">
         <v>43</v>
       </c>
       <c r="AH4">
-        <v>579563</v>
+        <v>575252</v>
       </c>
       <c r="AI4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AK4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="AL4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -1953,10 +2091,10 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45009</v>
+        <v>45000</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1965,10 +2103,10 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -1980,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5">
-        <v>80931</v>
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
@@ -1992,16 +2130,16 @@
         <v>43</v>
       </c>
       <c r="N5">
-        <v>2664.19</v>
+        <v>4700</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5">
-        <v>579999</v>
+        <v>576777</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>
@@ -2016,55 +2154,55 @@
         <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s">
         <v>50</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5">
+        <v>5018041631</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5">
+        <v>5018041631</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5">
+        <v>576777</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK5" t="s">
         <v>78</v>
       </c>
-      <c r="AA5">
-        <v>7708006274</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5">
-        <v>7734191827</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH5">
-        <v>579999</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>88</v>
-      </c>
       <c r="AL5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s">
         <v>50</v>
@@ -2075,10 +2213,10 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45009</v>
+        <v>45007</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -2087,10 +2225,10 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -2102,10 +2240,10 @@
         <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="K6">
+        <v>710133</v>
       </c>
       <c r="L6" t="s">
         <v>43</v>
@@ -2120,10 +2258,10 @@
         <v>43</v>
       </c>
       <c r="P6">
-        <v>580023</v>
+        <v>578902</v>
       </c>
       <c r="Q6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="R6" t="s">
         <v>43</v>
@@ -2138,28 +2276,28 @@
         <v>48</v>
       </c>
       <c r="V6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W6" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="X6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="Z6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA6">
-        <v>7708006274</v>
+        <v>5018145380</v>
       </c>
       <c r="AB6" t="s">
         <v>43</v>
       </c>
       <c r="AC6">
-        <v>7734191827</v>
+        <v>5018145380</v>
       </c>
       <c r="AD6" t="s">
         <v>43</v>
@@ -2168,28 +2306,28 @@
         <v>54</v>
       </c>
       <c r="AF6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6">
+        <v>578902</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" t="s">
         <v>89</v>
       </c>
-      <c r="AG6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH6">
-        <v>580023</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>99</v>
-      </c>
       <c r="AL6" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="AM6" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="AN6" t="s">
         <v>58</v>
@@ -2197,10 +2335,10 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -2209,10 +2347,10 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -2224,10 +2362,10 @@
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
         <v>43</v>
@@ -2236,16 +2374,16 @@
         <v>43</v>
       </c>
       <c r="N7">
-        <v>6800</v>
+        <v>7900</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
       <c r="P7">
-        <v>580023</v>
+        <v>579563</v>
       </c>
       <c r="Q7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
         <v>43</v>
@@ -2260,19 +2398,19 @@
         <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Z7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA7">
         <v>7708006274</v>
@@ -2287,31 +2425,31 @@
         <v>43</v>
       </c>
       <c r="AE7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="AF7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="AG7" t="s">
         <v>43</v>
       </c>
       <c r="AH7">
-        <v>580023</v>
+        <v>579563</v>
       </c>
       <c r="AI7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="AM7" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="AN7" t="s">
         <v>58</v>
@@ -2322,7 +2460,7 @@
         <v>45009</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -2331,10 +2469,10 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -2346,10 +2484,10 @@
         <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="K8">
+        <v>80931</v>
       </c>
       <c r="L8" t="s">
         <v>43</v>
@@ -2358,16 +2496,16 @@
         <v>43</v>
       </c>
       <c r="N8">
-        <v>6800</v>
+        <v>2664.19</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8">
-        <v>580023</v>
+        <v>579999</v>
       </c>
       <c r="Q8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="R8" t="s">
         <v>43</v>
@@ -2382,19 +2520,19 @@
         <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W8" t="s">
         <v>50</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Z8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA8">
         <v>7708006274</v>
@@ -2409,28 +2547,28 @@
         <v>43</v>
       </c>
       <c r="AE8" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="AF8" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s">
         <v>43</v>
       </c>
       <c r="AH8">
-        <v>580023</v>
+        <v>579999</v>
       </c>
       <c r="AI8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AJ8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AK8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AL8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AM8" t="s">
         <v>50</v>
@@ -2444,7 +2582,7 @@
         <v>45009</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -2453,10 +2591,10 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -2468,10 +2606,10 @@
         <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
         <v>43</v>
@@ -2486,10 +2624,10 @@
         <v>43</v>
       </c>
       <c r="P9">
-        <v>580059</v>
+        <v>580023</v>
       </c>
       <c r="Q9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="R9" t="s">
         <v>43</v>
@@ -2504,28 +2642,28 @@
         <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="W9" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Z9" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA9">
-        <v>7727751059</v>
+        <v>7708006274</v>
       </c>
       <c r="AB9" t="s">
         <v>43</v>
       </c>
       <c r="AC9">
-        <v>7727751059</v>
+        <v>7734191827</v>
       </c>
       <c r="AD9" t="s">
         <v>43</v>
@@ -2534,28 +2672,28 @@
         <v>54</v>
       </c>
       <c r="AF9" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="AG9" t="s">
         <v>43</v>
       </c>
       <c r="AH9">
-        <v>580059</v>
+        <v>580023</v>
       </c>
       <c r="AI9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AJ9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AL9" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="AM9" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="s">
         <v>58</v>
@@ -2566,7 +2704,7 @@
         <v>45009</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -2575,10 +2713,10 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -2590,10 +2728,10 @@
         <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
         <v>43</v>
@@ -2602,16 +2740,16 @@
         <v>43</v>
       </c>
       <c r="N10">
-        <v>10900</v>
+        <v>6800</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10">
-        <v>580059</v>
+        <v>580023</v>
       </c>
       <c r="Q10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="R10" t="s">
         <v>43</v>
@@ -2626,28 +2764,28 @@
         <v>48</v>
       </c>
       <c r="V10" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
         <v>121</v>
       </c>
-      <c r="W10" t="s">
-        <v>50</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>122</v>
       </c>
-      <c r="Y10" t="s">
-        <v>115</v>
-      </c>
       <c r="Z10" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA10">
-        <v>7727751059</v>
+        <v>7708006274</v>
       </c>
       <c r="AB10" t="s">
         <v>43</v>
       </c>
       <c r="AC10">
-        <v>7727751059</v>
+        <v>7734191827</v>
       </c>
       <c r="AD10" t="s">
         <v>43</v>
@@ -2656,28 +2794,28 @@
         <v>54</v>
       </c>
       <c r="AF10" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s">
         <v>43</v>
       </c>
       <c r="AH10">
-        <v>580059</v>
+        <v>580023</v>
       </c>
       <c r="AI10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AJ10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK10" t="s">
         <v>122</v>
       </c>
-      <c r="AK10" t="s">
-        <v>115</v>
-      </c>
       <c r="AL10" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="AM10" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="s">
         <v>58</v>
@@ -2688,7 +2826,7 @@
         <v>45009</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -2697,10 +2835,10 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -2712,10 +2850,10 @@
         <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
         <v>43</v>
@@ -2724,16 +2862,16 @@
         <v>43</v>
       </c>
       <c r="N11">
-        <v>10900</v>
+        <v>6800</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11">
-        <v>580059</v>
+        <v>580023</v>
       </c>
       <c r="Q11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="R11" t="s">
         <v>43</v>
@@ -2748,28 +2886,28 @@
         <v>48</v>
       </c>
       <c r="V11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W11" t="s">
         <v>50</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA11">
-        <v>7727751059</v>
+        <v>7708006274</v>
       </c>
       <c r="AB11" t="s">
         <v>43</v>
       </c>
       <c r="AC11">
-        <v>7727751059</v>
+        <v>7734191827</v>
       </c>
       <c r="AD11" t="s">
         <v>43</v>
@@ -2778,25 +2916,25 @@
         <v>54</v>
       </c>
       <c r="AF11" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s">
         <v>43</v>
       </c>
       <c r="AH11">
-        <v>580059</v>
+        <v>580023</v>
       </c>
       <c r="AI11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AK11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s">
         <v>50</v>
@@ -2807,10 +2945,10 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45013</v>
+        <v>45009</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -2819,13 +2957,13 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
         <v>42</v>
@@ -2834,10 +2972,10 @@
         <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
         <v>43</v>
@@ -2852,10 +2990,10 @@
         <v>43</v>
       </c>
       <c r="P12">
-        <v>580978</v>
+        <v>580059</v>
       </c>
       <c r="Q12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R12" t="s">
         <v>43</v>
@@ -2870,28 +3008,28 @@
         <v>48</v>
       </c>
       <c r="V12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="W12" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Z12" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA12">
-        <v>7708006274</v>
+        <v>7727751059</v>
       </c>
       <c r="AB12" t="s">
         <v>43</v>
       </c>
       <c r="AC12">
-        <v>7734191827</v>
+        <v>7727751059</v>
       </c>
       <c r="AD12" t="s">
         <v>43</v>
@@ -2900,28 +3038,28 @@
         <v>54</v>
       </c>
       <c r="AF12" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="AG12" t="s">
         <v>43</v>
       </c>
       <c r="AH12">
-        <v>580978</v>
+        <v>580059</v>
       </c>
       <c r="AI12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AL12" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="AM12" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="AN12" t="s">
         <v>58</v>
@@ -2929,10 +3067,10 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45014</v>
+        <v>45009</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -2941,10 +3079,10 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -2956,10 +3094,10 @@
         <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
         <v>43</v>
@@ -2968,16 +3106,16 @@
         <v>43</v>
       </c>
       <c r="N13">
-        <v>6800</v>
+        <v>10900</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13">
-        <v>581249</v>
+        <v>580059</v>
       </c>
       <c r="Q13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R13" t="s">
         <v>43</v>
@@ -2992,28 +3130,28 @@
         <v>48</v>
       </c>
       <c r="V13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="W13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="X13" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA13">
-        <v>7708006274</v>
+        <v>7727751059</v>
       </c>
       <c r="AB13" t="s">
         <v>43</v>
       </c>
       <c r="AC13">
-        <v>7734191827</v>
+        <v>7727751059</v>
       </c>
       <c r="AD13" t="s">
         <v>43</v>
@@ -3022,28 +3160,28 @@
         <v>54</v>
       </c>
       <c r="AF13" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="AG13" t="s">
         <v>43</v>
       </c>
       <c r="AH13">
-        <v>581249</v>
+        <v>580059</v>
       </c>
       <c r="AI13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="AK13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL13" t="s">
         <v>140</v>
       </c>
-      <c r="AL13" t="s">
-        <v>43</v>
-      </c>
       <c r="AM13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="AN13" t="s">
         <v>58</v>
@@ -3051,10 +3189,10 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45014</v>
+        <v>45009</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -3063,10 +3201,10 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -3078,10 +3216,10 @@
         <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
         <v>43</v>
@@ -3090,16 +3228,16 @@
         <v>43</v>
       </c>
       <c r="N14">
-        <v>6800</v>
+        <v>10900</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14">
-        <v>581249</v>
+        <v>580059</v>
       </c>
       <c r="Q14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R14" t="s">
         <v>43</v>
@@ -3114,28 +3252,28 @@
         <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="W14" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="X14" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z14" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA14">
-        <v>7708006274</v>
+        <v>7727751059</v>
       </c>
       <c r="AB14" t="s">
         <v>43</v>
       </c>
       <c r="AC14">
-        <v>7734191827</v>
+        <v>7727751059</v>
       </c>
       <c r="AD14" t="s">
         <v>43</v>
@@ -3144,28 +3282,28 @@
         <v>54</v>
       </c>
       <c r="AF14" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="AG14" t="s">
         <v>43</v>
       </c>
       <c r="AH14">
-        <v>581249</v>
+        <v>580059</v>
       </c>
       <c r="AI14" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AJ14" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL14" t="s">
         <v>140</v>
       </c>
-      <c r="AL14" t="s">
-        <v>43</v>
-      </c>
       <c r="AM14" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="s">
         <v>58</v>
@@ -3173,10 +3311,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45015</v>
+        <v>45013</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -3185,10 +3323,10 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -3200,10 +3338,10 @@
         <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
         <v>43</v>
@@ -3212,16 +3350,16 @@
         <v>43</v>
       </c>
       <c r="N15">
-        <v>10900</v>
+        <v>6800</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15">
-        <v>581558</v>
+        <v>580978</v>
       </c>
       <c r="Q15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="R15" t="s">
         <v>43</v>
@@ -3236,28 +3374,28 @@
         <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="W15" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA15">
-        <v>7733191888</v>
+        <v>7708006274</v>
       </c>
       <c r="AB15" t="s">
         <v>43</v>
       </c>
       <c r="AC15">
-        <v>7733191888</v>
+        <v>7734191827</v>
       </c>
       <c r="AD15" t="s">
         <v>43</v>
@@ -3266,28 +3404,28 @@
         <v>54</v>
       </c>
       <c r="AF15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s">
         <v>43</v>
       </c>
       <c r="AH15">
-        <v>581558</v>
+        <v>580978</v>
       </c>
       <c r="AI15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AJ15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AK15" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="AL15" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="AM15" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="s">
         <v>58</v>
@@ -3295,10 +3433,10 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45015</v>
+        <v>45014</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -3307,10 +3445,10 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -3322,10 +3460,10 @@
         <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
         <v>43</v>
@@ -3334,16 +3472,16 @@
         <v>43</v>
       </c>
       <c r="N16">
-        <v>4700</v>
+        <v>6800</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16">
-        <v>581558</v>
+        <v>581249</v>
       </c>
       <c r="Q16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="R16" t="s">
         <v>43</v>
@@ -3358,28 +3496,28 @@
         <v>48</v>
       </c>
       <c r="V16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="W16" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X16" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="Y16" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="Z16" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA16">
-        <v>7733191888</v>
+        <v>7708006274</v>
       </c>
       <c r="AB16" t="s">
         <v>43</v>
       </c>
       <c r="AC16">
-        <v>7733191888</v>
+        <v>7734191827</v>
       </c>
       <c r="AD16" t="s">
         <v>43</v>
@@ -3388,161 +3526,161 @@
         <v>54</v>
       </c>
       <c r="AF16" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AG16" t="s">
         <v>43</v>
       </c>
       <c r="AH16">
-        <v>581558</v>
+        <v>581249</v>
       </c>
       <c r="AI16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AJ16" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="AK16" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="AL16" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="AM16" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45015</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17">
         <v>6800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="3">
-        <v>581928</v>
-      </c>
-      <c r="Q17" s="3" t="s">
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17">
+        <v>581249</v>
+      </c>
+      <c r="Q17" t="s">
         <v>160</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" s="3" t="s">
+      <c r="R17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" t="s">
         <v>48</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y17" s="3" t="s">
+      <c r="V17" t="s">
+        <v>165</v>
+      </c>
+      <c r="W17" t="s">
+        <v>120</v>
+      </c>
+      <c r="X17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y17" t="s">
         <v>162</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="Z17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA17">
         <v>7708006274</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AB17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17">
         <v>7734191827</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AD17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE17" t="s">
         <v>54</v>
       </c>
-      <c r="AF17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>581928</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK17" s="3" t="s">
+      <c r="AF17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH17">
+        <v>581249</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK17" t="s">
         <v>162</v>
       </c>
-      <c r="AL17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN17" s="3" t="s">
+      <c r="AL17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45019</v>
+        <v>45015</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -3551,10 +3689,10 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -3566,10 +3704,10 @@
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
         <v>43</v>
@@ -3578,16 +3716,16 @@
         <v>43</v>
       </c>
       <c r="N18">
-        <v>4103.75</v>
+        <v>10900</v>
       </c>
       <c r="O18" t="s">
         <v>43</v>
       </c>
       <c r="P18">
-        <v>582635</v>
+        <v>581558</v>
       </c>
       <c r="Q18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
         <v>43</v>
@@ -3596,34 +3734,34 @@
         <v>43</v>
       </c>
       <c r="T18" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="U18" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="V18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W18" t="s">
         <v>50</v>
       </c>
       <c r="X18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="Z18" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA18">
-        <v>7707306652</v>
+        <v>7733191888</v>
       </c>
       <c r="AB18" t="s">
         <v>43</v>
       </c>
       <c r="AC18">
-        <v>7707306652</v>
+        <v>7733191888</v>
       </c>
       <c r="AD18" t="s">
         <v>43</v>
@@ -3632,25 +3770,25 @@
         <v>54</v>
       </c>
       <c r="AF18" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="AG18" t="s">
         <v>43</v>
       </c>
       <c r="AH18">
-        <v>582635</v>
+        <v>581558</v>
       </c>
       <c r="AI18" t="s">
         <v>174</v>
       </c>
       <c r="AJ18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK18" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="AL18" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="AM18" t="s">
         <v>50</v>
@@ -3661,10 +3799,10 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45019</v>
+        <v>45015</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -3673,10 +3811,10 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -3688,11 +3826,11 @@
         <v>43</v>
       </c>
       <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
         <v>177</v>
       </c>
-      <c r="K19">
-        <v>1206004256</v>
-      </c>
       <c r="L19" t="s">
         <v>43</v>
       </c>
@@ -3700,16 +3838,16 @@
         <v>43</v>
       </c>
       <c r="N19">
-        <v>4103.75</v>
+        <v>4700</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19">
-        <v>582635</v>
+        <v>581558</v>
       </c>
       <c r="Q19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
         <v>43</v>
@@ -3718,10 +3856,10 @@
         <v>43</v>
       </c>
       <c r="T19" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="U19" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="V19" t="s">
         <v>178</v>
@@ -3733,19 +3871,19 @@
         <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="Z19" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AA19">
-        <v>7707306652</v>
+        <v>7733191888</v>
       </c>
       <c r="AB19" t="s">
         <v>43</v>
       </c>
       <c r="AC19">
-        <v>7707306652</v>
+        <v>7733191888</v>
       </c>
       <c r="AD19" t="s">
         <v>43</v>
@@ -3754,13 +3892,13 @@
         <v>54</v>
       </c>
       <c r="AF19" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="AG19" t="s">
         <v>43</v>
       </c>
       <c r="AH19">
-        <v>582635</v>
+        <v>581558</v>
       </c>
       <c r="AI19" t="s">
         <v>180</v>
@@ -3769,10 +3907,10 @@
         <v>179</v>
       </c>
       <c r="AK19" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="AL19" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="AM19" t="s">
         <v>50</v>
@@ -3781,369 +3919,1223 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>6800</v>
+      </c>
+      <c r="O20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20">
+        <v>581928</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>182</v>
+      </c>
+      <c r="R20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" t="s">
+        <v>47</v>
+      </c>
+      <c r="U20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" t="s">
+        <v>183</v>
+      </c>
+      <c r="W20" t="s">
+        <v>120</v>
+      </c>
+      <c r="X20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA20">
+        <v>7708006274</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20">
+        <v>7734191827</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH20">
+        <v>581928</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>2664.19</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21">
+        <v>582400</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>190</v>
+      </c>
+      <c r="R21" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21" t="s">
+        <v>191</v>
+      </c>
+      <c r="W21" t="s">
+        <v>50</v>
+      </c>
+      <c r="X21" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA21">
+        <v>7717149663</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21">
+        <v>7717149663</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH21">
+        <v>582400</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22">
+        <v>839415</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>2478.3200000000002</v>
+      </c>
+      <c r="O22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22">
+        <v>582400</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>190</v>
+      </c>
+      <c r="R22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" t="s">
+        <v>198</v>
+      </c>
+      <c r="U22" t="s">
+        <v>199</v>
+      </c>
+      <c r="V22" t="s">
+        <v>200</v>
+      </c>
+      <c r="W22" t="s">
+        <v>50</v>
+      </c>
+      <c r="X22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA22">
+        <v>7717149663</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22">
+        <v>7717149663</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH22">
+        <v>582400</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23">
+        <v>4894.68</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23">
+        <v>582400</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>190</v>
+      </c>
+      <c r="R23" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>207</v>
+      </c>
+      <c r="U23" t="s">
+        <v>208</v>
+      </c>
+      <c r="V23" t="s">
+        <v>209</v>
+      </c>
+      <c r="W23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X23" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA23">
+        <v>7717149663</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23">
+        <v>7717149663</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23">
+        <v>582400</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="2">
+        <v>225501602</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>7900</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24">
+        <v>582400</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>190</v>
+      </c>
+      <c r="R24" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" t="s">
+        <v>213</v>
+      </c>
+      <c r="W24" t="s">
+        <v>50</v>
+      </c>
+      <c r="X24" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA24">
+        <v>7717149663</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24">
+        <v>7717149663</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH24">
+        <v>582400</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25">
+        <v>4103.75</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25">
+        <v>582635</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>219</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>220</v>
+      </c>
+      <c r="U25" t="s">
+        <v>221</v>
+      </c>
+      <c r="V25" t="s">
+        <v>222</v>
+      </c>
+      <c r="W25" t="s">
+        <v>50</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA25">
+        <v>7707306652</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25">
+        <v>7707306652</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH25">
+        <v>582635</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26">
+        <v>1206004256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26">
+        <v>4103.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26">
+        <v>582635</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>219</v>
+      </c>
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>220</v>
+      </c>
+      <c r="U26" t="s">
+        <v>221</v>
+      </c>
+      <c r="V26" t="s">
+        <v>229</v>
+      </c>
+      <c r="W26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA26">
+        <v>7707306652</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26">
+        <v>7707306652</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH26">
+        <v>582635</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45021</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D27" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H27" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="I27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27">
         <v>160819</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27">
         <v>10900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="O27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27">
         <v>583561</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="W20" s="3" t="s">
+      <c r="Q27" t="s">
+        <v>234</v>
+      </c>
+      <c r="R27" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" t="s">
+        <v>220</v>
+      </c>
+      <c r="U27" t="s">
+        <v>221</v>
+      </c>
+      <c r="V27" t="s">
+        <v>235</v>
+      </c>
+      <c r="W27" t="s">
         <v>50</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="X27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA27">
         <v>7734191827</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AB27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC27">
         <v>7734191827</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AD27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE27" t="s">
         <v>54</v>
       </c>
-      <c r="AF20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH20" s="3">
+      <c r="AF27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH27">
         <v>583561</v>
       </c>
-      <c r="AI20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL20" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM20" s="3" t="s">
+      <c r="AI27" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM27" t="s">
         <v>50</v>
       </c>
-      <c r="AN20" s="3" t="s">
+      <c r="AN27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45021</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D28" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H28" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28">
         <v>2336</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28">
         <v>7900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="O28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28">
         <v>583561</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="W21" s="3" t="s">
+      <c r="Q28" t="s">
+        <v>234</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" t="s">
+        <v>220</v>
+      </c>
+      <c r="U28" t="s">
+        <v>221</v>
+      </c>
+      <c r="V28" t="s">
+        <v>242</v>
+      </c>
+      <c r="W28" t="s">
         <v>50</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA28">
         <v>7734191827</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AB28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC28">
         <v>7734191827</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AD28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE28" t="s">
         <v>54</v>
       </c>
-      <c r="AF21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH21" s="3">
+      <c r="AF28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH28">
         <v>583561</v>
       </c>
-      <c r="AI21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ21" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL21" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM21" s="3" t="s">
+      <c r="AI28" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM28" t="s">
         <v>50</v>
       </c>
-      <c r="AN21" s="3" t="s">
+      <c r="AN28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45021</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D29" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H29" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29">
         <v>3940</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="L29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29">
         <v>7900</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="O29" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29">
         <v>583561</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="W22" s="3" t="s">
+      <c r="Q29" t="s">
+        <v>234</v>
+      </c>
+      <c r="R29" t="s">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s">
+        <v>220</v>
+      </c>
+      <c r="U29" t="s">
+        <v>221</v>
+      </c>
+      <c r="V29" t="s">
+        <v>247</v>
+      </c>
+      <c r="W29" t="s">
         <v>50</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="X29" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA29">
         <v>7734191827</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AB29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29">
         <v>7734191827</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AD29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE29" t="s">
         <v>54</v>
       </c>
-      <c r="AF22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH22" s="3">
+      <c r="AF29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH29">
         <v>583561</v>
       </c>
-      <c r="AI22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK22" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL22" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM22" s="3" t="s">
+      <c r="AI29" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM29" t="s">
         <v>50</v>
       </c>
-      <c r="AN22" s="3" t="s">
+      <c r="AN29" t="s">
         <v>58</v>
       </c>
     </row>
